--- a/Source code/Prisonproject/phpExcel/DanhSachPhamNhanSeTiepNhan.xlsx
+++ b/Source code/Prisonproject/phpExcel/DanhSachPhamNhanSeTiepNhan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>Mã Phạm Nhân</t>
   </si>
@@ -54,39 +54,6 @@
   </si>
   <si>
     <t>Địa Chỉ Thân Nhân</t>
-  </si>
-  <si>
-    <t>Đình Luân</t>
-  </si>
-  <si>
-    <t>22 Nguyễn Thị Minh Khai, P4, Q1, TP.HCM</t>
-  </si>
-  <si>
-    <t>Bình thường</t>
-  </si>
-  <si>
-    <t>Đặc biệt nghiêm trọng</t>
-  </si>
-  <si>
-    <t>Tốt</t>
-  </si>
-  <si>
-    <t>tù treo</t>
-  </si>
-  <si>
-    <t>làm MC</t>
-  </si>
-  <si>
-    <t>2019-05-18</t>
-  </si>
-  <si>
-    <t>2019-05-30</t>
-  </si>
-  <si>
-    <t>24/7</t>
-  </si>
-  <si>
-    <t>Gia Đình</t>
   </si>
 </sst>
 </file>
@@ -425,7 +392,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,47 +439,6 @@
       </c>
       <c r="M1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
